--- a/REGULAR/OJT/BERNALDEZ, MARLONE.xlsx
+++ b/REGULAR/OJT/BERNALDEZ, MARLONE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
   <si>
     <t>PERIOD</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>9/17-19/2023</t>
+  </si>
+  <si>
+    <t>11/6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -1846,8 +1849,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A386" activePane="bottomLeft"/>
-      <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="K400" sqref="K400"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K402" sqref="K402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2011,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>103.39600000000004</v>
+        <v>105.89600000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2018,7 +2021,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>194.54</v>
+        <v>195.04</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10299,7 +10302,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13">
@@ -10319,7 +10322,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -10339,7 +10342,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B394" s="20" t="s">
         <v>45</v>
@@ -10365,7 +10368,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13">
@@ -10385,7 +10388,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B396" s="20" t="s">
         <v>45</v>
@@ -10411,7 +10414,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B397" s="20" t="s">
         <v>259</v>
@@ -10437,7 +10440,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -10457,7 +10460,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -10477,18 +10480,20 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B400" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C400" s="13"/>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G400" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H400" s="39"/>
       <c r="I400" s="9"/>
@@ -10498,15 +10503,19 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="40"/>
+      <c r="A401" s="40">
+        <v>45230</v>
+      </c>
       <c r="B401" s="20"/>
-      <c r="C401" s="13"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
@@ -10514,8 +10523,12 @@
       <c r="K401" s="20"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40"/>
-      <c r="B402" s="20"/>
+      <c r="A402" s="40">
+        <v>45260</v>
+      </c>
+      <c r="B402" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
       <c r="E402" s="9"/>
@@ -10524,13 +10537,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H402" s="39"/>
+      <c r="H402" s="39">
+        <v>2</v>
+      </c>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
+      <c r="K402" s="20" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="40"/>
+      <c r="A403" s="40">
+        <v>45291</v>
+      </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
       <c r="D403" s="39"/>
@@ -10546,7 +10565,9 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40"/>
+      <c r="A404" s="40">
+        <v>45322</v>
+      </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
@@ -10562,7 +10583,9 @@
       <c r="K404" s="20"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40"/>
+      <c r="A405" s="40">
+        <v>45351</v>
+      </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
